--- a/data/trans_orig/P1435_2011_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Clase-trans_orig.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,576 +874,652 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+        <v>437211</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>437211</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>437211</v>
+      </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" s="5" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+        <v>314454</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>314454</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>314454</v>
+      </c>
       <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="5" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr"/>
+        <v>751665</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>751665</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>751665</v>
+      </c>
       <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="inlineStr"/>
-      <c r="W6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>437211</v>
+        <v>415941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>437211</v>
+        <v>410468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>437211</v>
+        <v>417882</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.993179284980354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9801125936998587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9978142474652589</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>314454</v>
+        <v>325974</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>314454</v>
+        <v>314927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>314454</v>
+        <v>331813</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9643898898609818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.9317069244844004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9816627297890518</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>751665</v>
+        <v>741915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>751665</v>
+        <v>731516</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>751665</v>
+        <v>749071</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.980321156701245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9665803324666928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9897774283420144</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grupo III</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>415941</v>
+        <v>2856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410468</v>
+        <v>915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417882</v>
+        <v>8329</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.993179284980354</v>
+        <v>0.006820715019645976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9801125936998587</v>
+        <v>0.002185752534741035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978142474652589</v>
+        <v>0.01988740630014094</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>325974</v>
+        <v>12037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314927</v>
+        <v>6198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>331813</v>
+        <v>23084</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9643898898609818</v>
+        <v>0.03561011013901817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9317069244844004</v>
+        <v>0.01833727021094829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9816627297890518</v>
+        <v>0.06829307551559978</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>667</v>
+        <v>13</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>741915</v>
+        <v>14893</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731516</v>
+        <v>7737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>749071</v>
+        <v>25292</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.980321156701245</v>
+        <v>0.01967884329875505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9665803324666928</v>
+        <v>0.01022257165798559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9897774283420144</v>
+        <v>0.03341966753330752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2856</v>
+        <v>418797</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>915</v>
+        <v>418797</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8329</v>
+        <v>418797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.006820715019645976</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002185752534741035</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01988740630014094</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>12037</v>
+        <v>338011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6198</v>
+        <v>338011</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23084</v>
+        <v>338011</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03561011013901817</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01833727021094829</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06829307551559978</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>13</v>
+        <v>680</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>14893</v>
+        <v>756808</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7737</v>
+        <v>756808</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25292</v>
+        <v>756808</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01967884329875505</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01022257165798559</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03341966753330752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+        <v>625260</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>618217</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>628356</v>
+      </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
+        <v>0.9933992007789475</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.9822085999887942</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9983181441585867</v>
+      </c>
       <c r="J10" s="5" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+        <v>255236</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>249223</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>258228</v>
+      </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" s="6" t="inlineStr"/>
+        <v>0.9811894408101507</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0.9580733934880651</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.9926903205761923</v>
+      </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
+        <v>880496</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>873320</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>885438</v>
+      </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
+        <v>0.9898287006019217</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0.9817614890697643</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0.995384554440623</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4155</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>11198</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.006600799221052556</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.001681855841413297</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01779140001120459</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>4893</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>1901</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>10906</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.01881055918984928</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.007309679423807665</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.04192660651193487</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>9048</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>4106</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>16224</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.01017129939807824</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.004615445559377058</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.01823851093023562</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>375</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>418797</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>418797</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>418797</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>305</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>338011</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>338011</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>338011</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>680</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>756808</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>756808</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>756808</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Grupo IV y V</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>591</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>629415</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>629415</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>629415</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>260129</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>260129</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>260129</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>835</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>889544</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>889544</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>889544</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>587</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>625260</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>618217</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>628356</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.9933992007789475</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.9822085999887942</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.9983181441585867</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>239</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>255236</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>249223</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>258228</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.9811894408101507</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.9580733934880651</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.9926903205761923</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>826</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>880496</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>873320</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>885438</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.9898287006019217</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.9817614890697643</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.995384554440623</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>4</v>
+        <v>1082</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4155</v>
+        <v>1158043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1059</v>
+        <v>1154157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11198</v>
+        <v>1159009</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.006600799221052556</v>
+        <v>0.9991664896745129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001681855841413297</v>
+        <v>0.9958137174789882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01779140001120459</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>5</v>
+        <v>681</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>4893</v>
+        <v>734426</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1901</v>
+        <v>722117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10906</v>
+        <v>744347</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01881055918984928</v>
+        <v>0.9579590174061513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007309679423807665</v>
+        <v>0.9419038919666763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04192660651193487</v>
+        <v>0.9708990575825512</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>9</v>
+        <v>1763</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>9048</v>
+        <v>1892470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4106</v>
+        <v>1877957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16224</v>
+        <v>1902366</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01017129939807824</v>
+        <v>0.9827607350198369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004615445559377058</v>
+        <v>0.9752244060574164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01823851093023562</v>
+        <v>0.9878999915067271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>966</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="F14" s="5" t="n">
+        <v>4852</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.0008335103254870223</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.004186282521011786</v>
+      </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+        <v>32231</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>22310</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>44540</v>
+      </c>
       <c r="N14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
+        <v>0.04204098259384865</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.0291009424174489</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.05809610803332366</v>
+      </c>
       <c r="Q14" s="5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
+        <v>33197</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>23301</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>47710</v>
+      </c>
       <c r="U14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="inlineStr"/>
-      <c r="W14" s="6" t="inlineStr"/>
+        <v>0.01723926498016319</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01210000849327287</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.02477559394258355</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1453,16 +1529,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>591</v>
+        <v>1083</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>629415</v>
+        <v>1159009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>629415</v>
+        <v>1159009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>629415</v>
+        <v>1159009</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -1474,16 +1550,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>244</v>
+        <v>711</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>260129</v>
+        <v>766657</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>260129</v>
+        <v>766657</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>260129</v>
+        <v>766657</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -1495,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>835</v>
+        <v>1794</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>889544</v>
+        <v>1925667</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>889544</v>
+        <v>1925667</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>889544</v>
+        <v>1925667</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -1519,7 +1595,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Grupo VI</t>
+          <t>Grupo VII</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1528,67 +1604,67 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1082</v>
+        <v>485</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1158043</v>
+        <v>508595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1154157</v>
+        <v>503613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1159009</v>
+        <v>510596</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9991664896745129</v>
+        <v>0.9960817363803991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9958137174789882</v>
+        <v>0.9863232099912302</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>734426</v>
+        <v>732443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>722117</v>
+        <v>720972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>744347</v>
+        <v>741868</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9579590174061513</v>
+        <v>0.9618141157811928</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9419038919666763</v>
+        <v>0.9467520175222359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9708990575825512</v>
+        <v>0.9741905246988389</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>1763</v>
+        <v>1160</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>1892470</v>
+        <v>1241038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1877957</v>
+        <v>1227219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1902366</v>
+        <v>1250753</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9827607350198369</v>
+        <v>0.9755682800028541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9752244060574164</v>
+        <v>0.9647057066187457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9878999915067271</v>
+        <v>0.9832051396333356</v>
       </c>
     </row>
     <row r="17">
@@ -1599,965 +1675,560 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>966</v>
+        <v>2001</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4852</v>
+        <v>6983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0008335103254870223</v>
+        <v>0.003918263619600876</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.004186282521011786</v>
+        <v>0.0136767900087698</v>
       </c>
       <c r="J17" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>29079</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>19654</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>40550</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>0.03818588421880723</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>0.02580947530116103</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>0.05324798247776409</v>
+      </c>
+      <c r="Q17" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="K17" s="5" t="n">
-        <v>32231</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>22310</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>44540</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.04204098259384865</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.0291009424174489</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.05809610803332366</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>31</v>
-      </c>
       <c r="R17" s="5" t="n">
-        <v>33197</v>
+        <v>31080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23301</v>
+        <v>21365</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47710</v>
+        <v>44899</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01723926498016319</v>
+        <v>0.02443171999714592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01210000849327287</v>
+        <v>0.01679486036666441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02477559394258355</v>
+        <v>0.0352942933812542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
+        <v>487</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>510596</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>510596</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>510596</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>703</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>761522</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>761522</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>761522</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1190</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>1272118</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>1272118</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>1272118</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>265</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>266882</v>
+      </c>
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="5" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>1073161</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>1060233</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>1084475</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.967377241869641</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0.9557240621026007</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>0.9775764026362228</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1276</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>1340043</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1326056</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>1351478</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>0.9737035132038486</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>0.9635406847886967</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>0.982012635187553</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="6" t="n">
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
-      <c r="Q18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6" t="inlineStr"/>
-      <c r="W18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1083</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1159009</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>1159009</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>1159009</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>711</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>766657</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>766657</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>766657</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>1794</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1925667</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1925667</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1925667</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VII</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>485</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>508595</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>503613</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>510596</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.9960817363803991</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.9863232099912302</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>675</v>
+        <v>33</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>732443</v>
+        <v>36190</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>720972</v>
+        <v>24876</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>741868</v>
+        <v>49118</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9618141157811928</v>
+        <v>0.032622758130359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9467520175222359</v>
+        <v>0.02242359736377685</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9741905246988389</v>
+        <v>0.04427593789739915</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>1160</v>
+        <v>33</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>1241038</v>
+        <v>36190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1227219</v>
+        <v>24755</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1250753</v>
+        <v>50177</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9755682800028541</v>
+        <v>0.02629648679615134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9647057066187457</v>
+        <v>0.0179873648124468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9832051396333356</v>
+        <v>0.0364593152113032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2001</v>
+        <v>266882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0</v>
+        <v>266882</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6983</v>
+        <v>266882</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.003918263619600876</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0136767900087698</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>28</v>
+        <v>1044</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>29079</v>
+        <v>1109351</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19654</v>
+        <v>1109351</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40550</v>
+        <v>1109351</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03818588421880723</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02580947530116103</v>
+        <v>1</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05324798247776409</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>30</v>
+        <v>1309</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>31080</v>
+        <v>1376233</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21365</v>
+        <v>1376233</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44899</v>
+        <v>1376233</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.02443171999714592</v>
+        <v>1</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01679486036666441</v>
+        <v>1</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0352942933812542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>3194</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
+        <v>3410896</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3402390</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3415934</v>
+      </c>
       <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
+        <v>0.9967812353162195</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.9942956098457096</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9982535497641243</v>
+      </c>
       <c r="J22" s="5" t="n">
-        <v>0</v>
+        <v>3174</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
+        <v>3423372</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>3400903</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>3444857</v>
+      </c>
       <c r="N22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="inlineStr"/>
-      <c r="P22" s="6" t="inlineStr"/>
+        <v>0.9642962775659535</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0.9579669770038325</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>0.9703480629588146</v>
+      </c>
       <c r="Q22" s="5" t="n">
-        <v>0</v>
+        <v>6368</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
+        <v>6834268</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>6808502</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>6856293</v>
+      </c>
       <c r="U22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6" t="inlineStr"/>
-      <c r="W22" s="6" t="inlineStr"/>
+        <v>0.9802400582460508</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>0.9765444259611598</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>0.9833991039725148</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>11014</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>5976</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>19520</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.003218764683780473</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.001746450235875478</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.005704390154290347</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>126753</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>105268</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>149222</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.03570372243404654</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0.02965193704118544</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>0.04203302299616761</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>137767</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>115742</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>163533</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>0.01975994175394922</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>0.01660089602748514</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>0.02345557403884016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>487</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>510596</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>510596</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>510596</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>703</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>761522</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>761522</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>761522</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>1190</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>1272118</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>1272118</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>1272118</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>No ha trabajado</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C24" s="5" t="n">
-        <v>265</v>
+        <v>3205</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>266882</v>
-      </c>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
+        <v>3421910</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3421910</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3421910</v>
+      </c>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="6" t="inlineStr"/>
-      <c r="I24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="5" t="n">
-        <v>1011</v>
+        <v>3290</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1073161</v>
+        <v>3550125</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1060233</v>
+        <v>3550125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1084475</v>
+        <v>3550125</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.967377241869641</v>
+        <v>1</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9557240621026007</v>
+        <v>1</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9775764026362228</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>1276</v>
+        <v>6495</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>1340043</v>
+        <v>6972035</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1326056</v>
+        <v>6972035</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1351478</v>
+        <v>6972035</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9737035132038486</v>
+        <v>1</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9635406847886967</v>
+        <v>1</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.982012635187553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="inlineStr"/>
-      <c r="F25" s="5" t="inlineStr"/>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="inlineStr"/>
-      <c r="I25" s="6" t="inlineStr"/>
-      <c r="J25" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>36190</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>24876</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>49118</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.032622758130359</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>0.02242359736377685</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.04427593789739915</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>36190</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>24755</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>50177</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>0.02629648679615134</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0.0179873648124468</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>0.0364593152113032</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="J26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="inlineStr"/>
-      <c r="P26" s="6" t="inlineStr"/>
-      <c r="Q26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5" t="inlineStr"/>
-      <c r="T26" s="5" t="inlineStr"/>
-      <c r="U26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="6" t="inlineStr"/>
-      <c r="W26" s="6" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>265</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>266882</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>266882</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>266882</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>1044</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>1109351</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>1109351</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>1109351</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>1309</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>1376233</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>1376233</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>1376233</v>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>3194</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>3410896</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>3402390</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>3415934</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.9967812353162195</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0.9942956098457096</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.9982535497641243</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>3174</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>3423372</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>3400903</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>3444857</v>
-      </c>
-      <c r="N28" s="6" t="n">
-        <v>0.9642962775659535</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>0.9579669770038325</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>0.9703480629588146</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>6368</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>6834268</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>6808502</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>6856293</v>
-      </c>
-      <c r="U28" s="6" t="n">
-        <v>0.9802400582460508</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>0.9765444259611598</v>
-      </c>
-      <c r="W28" s="6" t="n">
-        <v>0.9833991039725148</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>5976</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>19520</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.003218764683780473</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.001746450235875478</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.005704390154290347</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>126753</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>105268</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>149222</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>0.03570372243404654</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0.02965193704118544</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>0.04203302299616761</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>137767</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>115742</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>163533</v>
-      </c>
-      <c r="U29" s="6" t="n">
-        <v>0.01975994175394922</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>0.01660089602748514</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>0.02345557403884016</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="5" t="inlineStr"/>
-      <c r="G30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6" t="inlineStr"/>
-      <c r="I30" s="6" t="inlineStr"/>
-      <c r="J30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5" t="inlineStr"/>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6" t="inlineStr"/>
-      <c r="P30" s="6" t="inlineStr"/>
-      <c r="Q30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5" t="inlineStr"/>
-      <c r="T30" s="5" t="inlineStr"/>
-      <c r="U30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="6" t="inlineStr"/>
-      <c r="W30" s="6" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>3205</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>3421910</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>3421910</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>3421910</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>3290</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>3550125</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>3550125</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>3550125</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>6495</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>6972035</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>6972035</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>6972035</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2566,16 +2237,16 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2587,7 +2258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2810,44 +2481,68 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+        <v>539914</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>531044</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>544931</v>
+      </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
+        <v>0.980559423970964</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9644510073727124</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9896708824144052</v>
+      </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+        <v>441820</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>429723</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>452437</v>
+      </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
+        <v>0.9059094467687476</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.881104561221789</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.9276784621432306</v>
+      </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr"/>
+        <v>981734</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>966476</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>993699</v>
+      </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="inlineStr"/>
-      <c r="W4" s="6" t="inlineStr"/>
+        <v>0.9454958649662878</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.9308014303886033</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.9570191457889955</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2924,599 +2619,651 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>539914</v>
+        <v>550618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>531044</v>
+        <v>550618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>544931</v>
+        <v>550618</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.980559423970964</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9644510073727124</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9896708824144052</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>441820</v>
+        <v>487709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>429723</v>
+        <v>487709</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>452437</v>
+        <v>487709</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9059094467687476</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.881104561221789</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9276784621432306</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>1162</v>
+        <v>1239</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>981734</v>
+        <v>1038327</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>966476</v>
+        <v>1038327</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>993699</v>
+        <v>1038327</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9454958649662878</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9308014303886033</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9570191457889955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>554</v>
+        <v>470</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>550618</v>
+        <v>473572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>550618</v>
+        <v>466106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>550618</v>
+        <v>478206</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9800491322241025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9645999373755846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9896393322869791</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>685</v>
+        <v>533</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>487709</v>
+        <v>385116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>487709</v>
+        <v>374791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>487709</v>
+        <v>393901</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.913287899826102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.8888026958235294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9341202308823827</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>1239</v>
+        <v>1003</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>1038327</v>
+        <v>858688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1038327</v>
+        <v>846698</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1038327</v>
+        <v>869650</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9489383222957124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9356880592913074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9610527322344666</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grupo III</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+        <v>9640</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5006</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>17106</v>
+      </c>
       <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>0.01995086777589746</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01036066771302066</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03540006262441464</v>
+      </c>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+        <v>36565</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>27780</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>46890</v>
+      </c>
       <c r="N8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="6" t="inlineStr"/>
+        <v>0.08671210017389804</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.06587976911761752</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.1111973041764707</v>
+      </c>
       <c r="Q8" s="5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr"/>
-      <c r="T8" s="5" t="inlineStr"/>
+        <v>46205</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>35243</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>58195</v>
+      </c>
       <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="inlineStr"/>
-      <c r="W8" s="6" t="inlineStr"/>
+        <v>0.0510616777042875</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.03894726776553352</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.06431194070869264</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9640</v>
+        <v>483212</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5006</v>
+        <v>483212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17106</v>
+        <v>483212</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01995086777589746</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01036066771302066</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03540006262441464</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>55</v>
+        <v>588</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>36565</v>
+        <v>421681</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27780</v>
+        <v>421681</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46890</v>
+        <v>421681</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08671210017389804</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06587976911761752</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1111973041764707</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>66</v>
+        <v>1069</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>46205</v>
+        <v>904893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35243</v>
+        <v>904893</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58195</v>
+        <v>904893</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0510616777042875</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03894726776553352</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06431194070869264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>473572</v>
+        <v>464719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>466106</v>
+        <v>458438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>478206</v>
+        <v>468035</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9800491322241025</v>
+        <v>0.9895112175029263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9645999373755846</v>
+        <v>0.9761377645904423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9896393322869791</v>
+        <v>0.9965715199863298</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>533</v>
+        <v>263</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>385116</v>
+        <v>171124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>374791</v>
+        <v>164260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>393901</v>
+        <v>176648</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.913287899826102</v>
+        <v>0.9126760170119705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8888026958235294</v>
+        <v>0.8760663565295135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9341202308823827</v>
+        <v>0.9421399617545883</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>1003</v>
+        <v>744</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>858688</v>
+        <v>635844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>846698</v>
+        <v>626779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>869650</v>
+        <v>642246</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9489383222957124</v>
+        <v>0.967588448031299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9356880592913074</v>
+        <v>0.9537942212332732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9610527322344666</v>
+        <v>0.9773298994254237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4926</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>11207</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.01048878249707367</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.00342848001367021</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.02386223540955617</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>16373</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>10849</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>23237</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.08732398298802929</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.05786003824541192</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.123933643470488</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>21299</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>14897</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>30364</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.03241155196870104</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.02267010057457616</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.0462057787667267</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>481</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>588</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>421681</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>421681</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>421681</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1069</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>904893</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>904893</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>904893</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Grupo IV y V</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>486</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>469645</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>469645</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>469645</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>289</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>187497</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>187497</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>187497</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>775</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>657143</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>657143</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>657143</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" s="6" t="inlineStr"/>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="inlineStr"/>
-      <c r="W12" s="6" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>5</v>
+        <v>1100</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4926</v>
+        <v>1116153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1610</v>
+        <v>1107048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11207</v>
+        <v>1122527</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01048878249707367</v>
+        <v>0.9861375216563897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00342848001367021</v>
+        <v>0.978092920500278</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02386223540955617</v>
+        <v>0.9917690018014437</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>26</v>
+        <v>1111</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>16373</v>
+        <v>784529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10849</v>
+        <v>770130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23237</v>
+        <v>797315</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08732398298802929</v>
+        <v>0.911359988894794</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05786003824541192</v>
+        <v>0.894633674685827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.123933643470488</v>
+        <v>0.9262136096159015</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>31</v>
+        <v>2211</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>21299</v>
+        <v>1900682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14897</v>
+        <v>1882519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30364</v>
+        <v>1914351</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03241155196870104</v>
+        <v>0.9538337450633906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02267010057457616</v>
+        <v>0.9447191806157427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0462057787667267</v>
+        <v>0.9606938025729483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>481</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>464719</v>
+        <v>15690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>458438</v>
+        <v>9316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>468035</v>
+        <v>24795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9895112175029263</v>
+        <v>0.01386247834361036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9761377645904423</v>
+        <v>0.008230998198556286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965715199863298</v>
+        <v>0.021907079499722</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>171124</v>
+        <v>76304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164260</v>
+        <v>63518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176648</v>
+        <v>90703</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9126760170119705</v>
+        <v>0.08864001110520596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8760663565295135</v>
+        <v>0.07378639038409857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9421399617545883</v>
+        <v>0.105366325314173</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>744</v>
+        <v>136</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>635844</v>
+        <v>91994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>626779</v>
+        <v>78325</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>642246</v>
+        <v>110157</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.967588448031299</v>
+        <v>0.04616625493660934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9537942212332732</v>
+        <v>0.03930619742705146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9773298994254237</v>
+        <v>0.0552808193842572</v>
       </c>
     </row>
     <row r="15">
@@ -3527,16 +3274,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>486</v>
+        <v>1118</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>469645</v>
+        <v>1131843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>469645</v>
+        <v>1131843</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>469645</v>
+        <v>1131843</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -3548,16 +3295,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>289</v>
+        <v>1229</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>187497</v>
+        <v>860833</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>187497</v>
+        <v>860833</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>187497</v>
+        <v>860833</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -3569,16 +3316,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>775</v>
+        <v>2347</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>657143</v>
+        <v>1992676</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>657143</v>
+        <v>1992676</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>657143</v>
+        <v>1992676</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -3593,7 +3340,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Grupo VI</t>
+          <t>Grupo VII</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -3602,44 +3349,68 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
+        <v>553489</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>544153</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>559237</v>
+      </c>
       <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="inlineStr"/>
-      <c r="I16" s="6" t="inlineStr"/>
+        <v>0.9762122857680676</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.9597466487455998</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.9863510701549536</v>
+      </c>
       <c r="J16" s="5" t="n">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
+        <v>746827</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>731311</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>760317</v>
+      </c>
       <c r="N16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="inlineStr"/>
-      <c r="P16" s="6" t="inlineStr"/>
+        <v>0.9004212633277329</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.8817132487630115</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.9166847628531554</v>
+      </c>
       <c r="Q16" s="5" t="n">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="5" t="inlineStr"/>
+        <v>1300316</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>1282444</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>1314527</v>
+      </c>
       <c r="U16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6" t="inlineStr"/>
-      <c r="W16" s="6" t="inlineStr"/>
+        <v>0.931194551204759</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.918395903400402</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.9413712131246165</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -3649,1005 +3420,576 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15690</v>
+        <v>13487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9316</v>
+        <v>7739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24795</v>
+        <v>22823</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01386247834361036</v>
+        <v>0.02378771423193245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008230998198556286</v>
+        <v>0.01364892984504642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.021907079499722</v>
+        <v>0.04025335125440014</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>76304</v>
+        <v>82593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63518</v>
+        <v>69103</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90703</v>
+        <v>98109</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08864001110520596</v>
+        <v>0.09957873667226716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07378639038409857</v>
+        <v>0.08331523714684461</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.105366325314173</v>
+        <v>0.1182867512369884</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>91994</v>
+        <v>96080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>78325</v>
+        <v>81869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110157</v>
+        <v>113952</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04616625493660934</v>
+        <v>0.06880544879524098</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03930619742705146</v>
+        <v>0.05862878687538364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0552808193842572</v>
+        <v>0.0816040965995978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1100</v>
+        <v>546</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1116153</v>
+        <v>566976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1107048</v>
+        <v>566976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1122527</v>
+        <v>566976</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9861375216563897</v>
+        <v>1</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.978092920500278</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9917690018014437</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1111</v>
+        <v>1288</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>784529</v>
+        <v>829420</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>770130</v>
+        <v>829420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>797315</v>
+        <v>829420</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.911359988894794</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.894633674685827</v>
+        <v>1</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9262136096159015</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>2211</v>
+        <v>1834</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>1900682</v>
+        <v>1396396</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1882519</v>
+        <v>1396396</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1914351</v>
+        <v>1396396</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9538337450633906</v>
+        <v>1</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9447191806157427</v>
+        <v>1</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9606938025729483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1118</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1131843</v>
+        <v>233838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1131843</v>
+        <v>221622</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1131843</v>
+        <v>237228</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1</v>
+        <v>0.9857082528640334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1</v>
+        <v>0.9342163577843703</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1229</v>
+        <v>1063</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>860833</v>
+        <v>781078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>860833</v>
+        <v>764978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>860833</v>
+        <v>792779</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1</v>
+        <v>0.926686966468692</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>1</v>
+        <v>0.9075850110930415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>1</v>
+        <v>0.9405691846688814</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>2347</v>
+        <v>1174</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>1992676</v>
+        <v>1014916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1992676</v>
+        <v>995729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1992676</v>
+        <v>1028011</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>1</v>
+        <v>0.9396501059861085</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>1</v>
+        <v>0.9218860620849438</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>1</v>
+        <v>0.9517739579850274</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VII</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>3390</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="F20" s="5" t="n">
+        <v>15606</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.01429174713596657</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>0.06578364221562899</v>
+      </c>
       <c r="J20" s="5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
+        <v>61794</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>50093</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>77894</v>
+      </c>
       <c r="N20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="inlineStr"/>
-      <c r="P20" s="6" t="inlineStr"/>
+        <v>0.07331303353130794</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0.05943081533111862</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>0.09241498890695833</v>
+      </c>
       <c r="Q20" s="5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
+        <v>65184</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>52089</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>84371</v>
+      </c>
       <c r="U20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6" t="inlineStr"/>
-      <c r="W20" s="6" t="inlineStr"/>
+        <v>0.06034989401389115</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>0.04822604201497246</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>0.07811393791505625</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13487</v>
+        <v>237228</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7739</v>
+        <v>237228</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22823</v>
+        <v>237228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02378771423193245</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01364892984504642</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04025335125440014</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>135</v>
+        <v>1157</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>82593</v>
+        <v>842872</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69103</v>
+        <v>842872</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98109</v>
+        <v>842872</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09957873667226716</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08331523714684461</v>
+        <v>1</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1182867512369884</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>149</v>
+        <v>1269</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>96080</v>
+        <v>1080100</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>81869</v>
+        <v>1080100</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>113952</v>
+        <v>1080100</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06880544879524098</v>
+        <v>1</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05862878687538364</v>
+        <v>1</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0816040965995978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>532</v>
+        <v>3236</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>553489</v>
+        <v>3381684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>544153</v>
+        <v>3364360</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>559237</v>
+        <v>3395026</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9762122857680676</v>
+        <v>0.9831841608568409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9597466487455998</v>
+        <v>0.9781475638005747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9863510701549536</v>
+        <v>0.9870632770421401</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>1153</v>
+        <v>4743</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>746827</v>
+        <v>3310495</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>731311</v>
+        <v>3279185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>760317</v>
+        <v>3337352</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9004212633277329</v>
+        <v>0.9119790840876616</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8817132487630115</v>
+        <v>0.9033536305556871</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9166847628531554</v>
+        <v>0.9193776107200232</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>1685</v>
+        <v>7979</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>1300316</v>
+        <v>6692179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1282444</v>
+        <v>6660668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1314527</v>
+        <v>6724015</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.931194551204759</v>
+        <v>0.9466223073092691</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.918395903400402</v>
+        <v>0.9421650805115774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9413712131246165</v>
+        <v>0.9511256588750719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>57838</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>75162</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.0168158391431591</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.01293672295785974</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.02185243619942519</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>493</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>319517</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>292660</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>350827</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.08802091591233834</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0.08062238927997675</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>0.09664636944431283</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>554</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>377355</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>345519</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>408866</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>0.053377692690731</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>0.04887434112492793</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>0.05783491948842257</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>546</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>566976</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>566976</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>566976</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>1288</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>829420</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>829420</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>829420</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>1834</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>1396396</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>1396396</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>1396396</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>No ha trabajado</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C24" s="5" t="n">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
+        <v>3439522</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3439522</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3439522</v>
+      </c>
       <c r="G24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="inlineStr"/>
-      <c r="I24" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="5" t="n">
-        <v>0</v>
+        <v>5236</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
+        <v>3630012</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>3630012</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>3630012</v>
+      </c>
       <c r="N24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="inlineStr"/>
-      <c r="P24" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" s="5" t="n">
-        <v>0</v>
+        <v>8533</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5" t="inlineStr"/>
-      <c r="T24" s="5" t="inlineStr"/>
+        <v>7069534</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>7069534</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>7069534</v>
+      </c>
       <c r="U24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="6" t="inlineStr"/>
-      <c r="W24" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>3390</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>15606</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.01429174713596657</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0.06578364221562899</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>61794</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>50093</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>77894</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.07331303353130794</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>0.05943081533111862</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.09241498890695833</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>65184</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>52089</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>84371</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>0.06034989401389115</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0.04822604201497246</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>0.07811393791505625</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>233838</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>221622</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.9857082528640334</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>0.9342163577843703</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>1063</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>781078</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>764978</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>792779</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.926686966468692</v>
-      </c>
-      <c r="O26" s="6" t="n">
-        <v>0.9075850110930415</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>0.9405691846688814</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>1174</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>1014916</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>995729</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>1028011</v>
-      </c>
-      <c r="U26" s="6" t="n">
-        <v>0.9396501059861085</v>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>0.9218860620849438</v>
-      </c>
-      <c r="W26" s="6" t="n">
-        <v>0.9517739579850274</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>1157</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>842872</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>842872</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>842872</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>1269</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>1080100</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>1080100</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>1080100</v>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr"/>
-      <c r="G28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="inlineStr"/>
-      <c r="I28" s="6" t="inlineStr"/>
-      <c r="J28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6" t="inlineStr"/>
-      <c r="P28" s="6" t="inlineStr"/>
-      <c r="Q28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5" t="inlineStr"/>
-      <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="6" t="inlineStr"/>
-      <c r="W28" s="6" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>57838</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>44496</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>75162</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.0168158391431591</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.01293672295785974</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.02185243619942519</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>493</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>319517</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>292660</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>350827</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>0.08802091591233834</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0.08062238927997675</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>0.09664636944431283</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>554</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>377355</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>345519</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>408866</v>
-      </c>
-      <c r="U29" s="6" t="n">
-        <v>0.053377692690731</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>0.04887434112492793</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>0.05783491948842257</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>3236</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>3381684</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>3364360</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <v>3395026</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>0.9831841608568409</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>0.9781475638005747</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0.9870632770421401</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>4743</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>3310495</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>3279185</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>3337352</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0.9119790840876616</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>0.9033536305556871</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>0.9193776107200232</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>7979</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>6692179</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>6660668</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>6724015</v>
-      </c>
-      <c r="U30" s="6" t="n">
-        <v>0.9466223073092691</v>
-      </c>
-      <c r="V30" s="6" t="n">
-        <v>0.9421650805115774</v>
-      </c>
-      <c r="W30" s="6" t="n">
-        <v>0.9511256588750719</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>3297</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>3439522</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>3439522</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>3439522</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>5236</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>3630012</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>3630012</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>3630012</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>8533</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>7069534</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>7069534</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>7069534</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -4656,16 +3998,16 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435_2011_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Clase-trans_orig.xlsx
@@ -742,7 +742,7 @@
         <v>436175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>431836</v>
+        <v>430370</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>437211</v>
@@ -751,7 +751,7 @@
         <v>0.997629311463834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9877070568898223</v>
+        <v>0.9843537928736243</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -763,19 +763,19 @@
         <v>302132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>291972</v>
+        <v>290564</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>308162</v>
+        <v>308157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9608134307373383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9285044210817901</v>
+        <v>0.9240254746303391</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9799892981561794</v>
+        <v>0.9799762864239066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>676</v>
@@ -784,19 +784,19 @@
         <v>738306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>729335</v>
+        <v>727721</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>744593</v>
+        <v>744456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9822276234788136</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.970292761675929</v>
+        <v>0.968145199873471</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9905913597633722</v>
+        <v>0.9904094548600787</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5375</v>
+        <v>6841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002370688536166001</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01229294311017641</v>
+        <v>0.01564620712637561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -834,19 +834,19 @@
         <v>12322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6292</v>
+        <v>6297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22482</v>
+        <v>23890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03918656926266177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02001070184382059</v>
+        <v>0.02002371357609344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07149557891820991</v>
+        <v>0.07597452536966094</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -855,19 +855,19 @@
         <v>13359</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7072</v>
+        <v>7209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22330</v>
+        <v>23944</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01777237652118633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009408640236627804</v>
+        <v>0.009590545139921301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02970723832407058</v>
+        <v>0.0318548001265288</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>415941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410468</v>
+        <v>410505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417882</v>
+        <v>417870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.993179284980354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9801125936998587</v>
+        <v>0.9801992803082059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9978142474652589</v>
+        <v>0.9977874630286887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -980,19 +980,19 @@
         <v>325974</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>314927</v>
+        <v>316776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331813</v>
+        <v>332049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9643898898609818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9317069244844004</v>
+        <v>0.9371753181491063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9816627297890518</v>
+        <v>0.982361099557347</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>667</v>
@@ -1001,19 +1001,19 @@
         <v>741915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>731516</v>
+        <v>731534</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>749071</v>
+        <v>748936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.980321156701245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9665803324666928</v>
+        <v>0.9666044283128766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9897774283420144</v>
+        <v>0.9895980286334769</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>2856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8329</v>
+        <v>8292</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006820715019645976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002185752534741035</v>
+        <v>0.00221253697131129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01988740630014094</v>
+        <v>0.01980071969179469</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1051,19 +1051,19 @@
         <v>12037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6198</v>
+        <v>5962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23084</v>
+        <v>21235</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03561011013901817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01833727021094829</v>
+        <v>0.01763890044265312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06829307551559978</v>
+        <v>0.06282468185089375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1072,19 +1072,19 @@
         <v>14893</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7737</v>
+        <v>7872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25292</v>
+        <v>25274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01967884329875505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01022257165798559</v>
+        <v>0.01040197136652323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03341966753330752</v>
+        <v>0.03339557168712366</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>625260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>618217</v>
+        <v>619078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>628356</v>
+        <v>628366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9933992007789475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9822085999887942</v>
+        <v>0.9835772580639185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9983181441585867</v>
+        <v>0.998333773204754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -1197,19 +1197,19 @@
         <v>255236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>249223</v>
+        <v>249245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258228</v>
+        <v>258177</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9811894408101507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9580733934880651</v>
+        <v>0.9581589721912671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9926903205761923</v>
+        <v>0.9924964653911953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>826</v>
@@ -1218,19 +1218,19 @@
         <v>880496</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>873320</v>
+        <v>873336</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>885438</v>
+        <v>885355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9898287006019217</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9817614890697643</v>
+        <v>0.9817792210100181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.995384554440623</v>
+        <v>0.9952905891769372</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>4155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11198</v>
+        <v>10337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006600799221052556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001681855841413297</v>
+        <v>0.001666226795245928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01779140001120459</v>
+        <v>0.01642274193608141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1268,19 +1268,19 @@
         <v>4893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1901</v>
+        <v>1952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10906</v>
+        <v>10884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01881055918984928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007309679423807665</v>
+        <v>0.007503534608804706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04192660651193487</v>
+        <v>0.04184102780873283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1289,19 +1289,19 @@
         <v>9048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4106</v>
+        <v>4189</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16224</v>
+        <v>16208</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01017129939807824</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004615445559377058</v>
+        <v>0.004709410823062856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01823851093023562</v>
+        <v>0.01822077898998199</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1393,7 @@
         <v>1158043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1154157</v>
+        <v>1154161</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>1159009</v>
@@ -1402,7 +1402,7 @@
         <v>0.9991664896745129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9958137174789882</v>
+        <v>0.99581696672817</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1414,19 +1414,19 @@
         <v>734426</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>722117</v>
+        <v>721264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>744347</v>
+        <v>744024</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9579590174061513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9419038919666763</v>
+        <v>0.9407906434808577</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9708990575825512</v>
+        <v>0.9704780034679747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1763</v>
@@ -1435,19 +1435,19 @@
         <v>1892470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1877957</v>
+        <v>1878916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1902366</v>
+        <v>1902891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9827607350198369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9752244060574164</v>
+        <v>0.9757221964826449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9878999915067271</v>
+        <v>0.9881725783370132</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4852</v>
+        <v>4848</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0008335103254870223</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004186282521011786</v>
+        <v>0.004183033271829939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1485,19 +1485,19 @@
         <v>32231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22310</v>
+        <v>22633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44540</v>
+        <v>45393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04204098259384865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0291009424174489</v>
+        <v>0.02952199653202526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05809610803332366</v>
+        <v>0.05920935651914243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1506,19 +1506,19 @@
         <v>33197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23301</v>
+        <v>22776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47710</v>
+        <v>46751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01723926498016319</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01210000849327287</v>
+        <v>0.01182742166298706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02477559394258355</v>
+        <v>0.02427780351735533</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>508595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>503613</v>
+        <v>503889</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>510596</v>
@@ -1619,7 +1619,7 @@
         <v>0.9960817363803991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9863232099912302</v>
+        <v>0.9868639625610678</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1631,19 +1631,19 @@
         <v>732443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>720972</v>
+        <v>719515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>741868</v>
+        <v>741882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9618141157811928</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9467520175222359</v>
+        <v>0.9448386805547165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9741905246988389</v>
+        <v>0.9742101263180107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1160</v>
@@ -1652,19 +1652,19 @@
         <v>1241038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1227219</v>
+        <v>1227984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1250753</v>
+        <v>1250777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9755682800028541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9647057066187457</v>
+        <v>0.9653065574903761</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9832051396333356</v>
+        <v>0.9832244130998249</v>
       </c>
     </row>
     <row r="17">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6983</v>
+        <v>6707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003918263619600876</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0136767900087698</v>
+        <v>0.0131360374389311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1702,19 +1702,19 @@
         <v>29079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19654</v>
+        <v>19640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40550</v>
+        <v>42007</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03818588421880723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02580947530116103</v>
+        <v>0.02578987368198929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05324798247776409</v>
+        <v>0.05516131944528328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1723,19 +1723,19 @@
         <v>31080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21365</v>
+        <v>21341</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44899</v>
+        <v>44134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02443171999714592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01679486036666441</v>
+        <v>0.01677558690017505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0352942933812542</v>
+        <v>0.0346934425096239</v>
       </c>
     </row>
     <row r="18">
@@ -1840,19 +1840,19 @@
         <v>1073161</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1060233</v>
+        <v>1058395</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1084475</v>
+        <v>1084384</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.967377241869641</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9557240621026007</v>
+        <v>0.9540664792390422</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9775764026362228</v>
+        <v>0.9774938636946638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1276</v>
@@ -1861,19 +1861,19 @@
         <v>1340043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1326056</v>
+        <v>1325649</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1351478</v>
+        <v>1351855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9737035132038486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9635406847886967</v>
+        <v>0.9632443778720386</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.982012635187553</v>
+        <v>0.9822863629851816</v>
       </c>
     </row>
     <row r="20">
@@ -1903,19 +1903,19 @@
         <v>36190</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24876</v>
+        <v>24967</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49118</v>
+        <v>50956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.032622758130359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02242359736377685</v>
+        <v>0.02250613630533601</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04427593789739915</v>
+        <v>0.04593352076095784</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -1924,19 +1924,19 @@
         <v>36190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24755</v>
+        <v>24378</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50177</v>
+        <v>50584</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02629648679615134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0179873648124468</v>
+        <v>0.01771363701481821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0364593152113032</v>
+        <v>0.03675562212796108</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>3410896</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3402390</v>
+        <v>3402925</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3415934</v>
+        <v>3415998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9967812353162195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9942956098457096</v>
+        <v>0.9944518729526844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9982535497641243</v>
+        <v>0.9982722544636313</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3174</v>
@@ -2049,19 +2049,19 @@
         <v>3423372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3400903</v>
+        <v>3399488</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3444857</v>
+        <v>3445714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9642962775659535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9579669770038325</v>
+        <v>0.9575686490063899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9703480629588146</v>
+        <v>0.9705895775857937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6368</v>
@@ -2070,19 +2070,19 @@
         <v>6834268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6808502</v>
+        <v>6807654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6856293</v>
+        <v>6856969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9802400582460508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9765444259611598</v>
+        <v>0.9764228331136546</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9833991039725148</v>
+        <v>0.9834960541195321</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>11014</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5976</v>
+        <v>5912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19520</v>
+        <v>18985</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003218764683780473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001746450235875478</v>
+        <v>0.001727745536368627</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.005704390154290347</v>
+        <v>0.005548127047315483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -2120,19 +2120,19 @@
         <v>126753</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>105268</v>
+        <v>104411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149222</v>
+        <v>150637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03570372243404654</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02965193704118544</v>
+        <v>0.02941042241420632</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04203302299616761</v>
+        <v>0.04243135099361031</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>127</v>
@@ -2141,19 +2141,19 @@
         <v>137767</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>115742</v>
+        <v>115066</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>163533</v>
+        <v>164381</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01975994175394922</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01660089602748514</v>
+        <v>0.01650394588046786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02345557403884016</v>
+        <v>0.02357716688634536</v>
       </c>
     </row>
     <row r="24">
@@ -2487,19 +2487,19 @@
         <v>539914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>531044</v>
+        <v>530852</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>544931</v>
+        <v>544998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.980559423970964</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9644510073727124</v>
+        <v>0.9641016881660713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9896708824144052</v>
+        <v>0.9897941205741791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>620</v>
@@ -2508,19 +2508,19 @@
         <v>441820</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>429723</v>
+        <v>429421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>452437</v>
+        <v>453297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9059094467687476</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.881104561221789</v>
+        <v>0.8804868361176009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9276784621432306</v>
+        <v>0.9294414073589853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1162</v>
@@ -2529,19 +2529,19 @@
         <v>981734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>966476</v>
+        <v>966548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>993699</v>
+        <v>994299</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9454958649662878</v>
+        <v>0.9454958649662877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9308014303886033</v>
+        <v>0.9308701723951317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9570191457889955</v>
+        <v>0.9575971177270277</v>
       </c>
     </row>
     <row r="5">
@@ -2558,19 +2558,19 @@
         <v>10704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5687</v>
+        <v>5620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19574</v>
+        <v>19766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01944057602903601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01032911758559503</v>
+        <v>0.01020587942582075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03554899262728767</v>
+        <v>0.03589831183392952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -2579,19 +2579,19 @@
         <v>45889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35272</v>
+        <v>34412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57986</v>
+        <v>58288</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09409055323125247</v>
+        <v>0.09409055323125248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07232153785676934</v>
+        <v>0.07055859264101461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.118895438778211</v>
+        <v>0.1195131638823991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -2600,19 +2600,19 @@
         <v>56593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44628</v>
+        <v>44028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71851</v>
+        <v>71779</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05450413503371228</v>
+        <v>0.05450413503371227</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04298085421100531</v>
+        <v>0.04240288227297234</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06919856961139685</v>
+        <v>0.06912982760486837</v>
       </c>
     </row>
     <row r="6">
@@ -2704,19 +2704,19 @@
         <v>473572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>466106</v>
+        <v>466187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>478206</v>
+        <v>478155</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9800491322241025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9645999373755846</v>
+        <v>0.9647667005850283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9896393322869791</v>
+        <v>0.9895353268757979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>533</v>
@@ -2725,19 +2725,19 @@
         <v>385116</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>374791</v>
+        <v>375299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>393901</v>
+        <v>393979</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.913287899826102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8888026958235294</v>
+        <v>0.8900069122110672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9341202308823827</v>
+        <v>0.9343049866446692</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1003</v>
@@ -2746,19 +2746,19 @@
         <v>858688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>846698</v>
+        <v>846348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>869650</v>
+        <v>868889</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9489383222957124</v>
+        <v>0.9489383222957123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9356880592913074</v>
+        <v>0.9353013264160684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9610527322344666</v>
+        <v>0.9602124170395693</v>
       </c>
     </row>
     <row r="8">
@@ -2775,19 +2775,19 @@
         <v>9640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5006</v>
+        <v>5057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17106</v>
+        <v>17025</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01995086777589746</v>
+        <v>0.01995086777589745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01036066771302066</v>
+        <v>0.01046467312420172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03540006262441464</v>
+        <v>0.03523329941497134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -2796,19 +2796,19 @@
         <v>36565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27780</v>
+        <v>27702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46890</v>
+        <v>46382</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08671210017389804</v>
+        <v>0.08671210017389802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06587976911761752</v>
+        <v>0.06569501335533066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1111973041764707</v>
+        <v>0.1099930877889327</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -2817,19 +2817,19 @@
         <v>46205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35243</v>
+        <v>36004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58195</v>
+        <v>58545</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0510616777042875</v>
+        <v>0.05106167770428749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03894726776553352</v>
+        <v>0.03978758296043072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06431194070869264</v>
+        <v>0.06469867358393155</v>
       </c>
     </row>
     <row r="9">
@@ -2921,19 +2921,19 @@
         <v>464719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>458438</v>
+        <v>458382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>468035</v>
+        <v>467989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9895112175029263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9761377645904423</v>
+        <v>0.9760189244159284</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9965715199863298</v>
+        <v>0.9964749739519455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -2942,19 +2942,19 @@
         <v>171124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164260</v>
+        <v>163937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176648</v>
+        <v>176353</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9126760170119705</v>
+        <v>0.9126760170119708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8760663565295135</v>
+        <v>0.8743432057072891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9421399617545883</v>
+        <v>0.9405657607550467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>744</v>
@@ -2963,19 +2963,19 @@
         <v>635844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>626779</v>
+        <v>627138</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>642246</v>
+        <v>642494</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.967588448031299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9537942212332732</v>
+        <v>0.9543402226349454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9773298994254237</v>
+        <v>0.9777081210304283</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>4926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1610</v>
+        <v>1656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11207</v>
+        <v>11263</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01048878249707367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00342848001367021</v>
+        <v>0.003525026048054409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02386223540955617</v>
+        <v>0.02398107558407187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -3013,19 +3013,19 @@
         <v>16373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10849</v>
+        <v>11144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23237</v>
+        <v>23560</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08732398298802929</v>
+        <v>0.08732398298802928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05786003824541192</v>
+        <v>0.05943423924495323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.123933643470488</v>
+        <v>0.1256567942927111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -3034,19 +3034,19 @@
         <v>21299</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14897</v>
+        <v>14649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30364</v>
+        <v>30005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03241155196870104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02267010057457616</v>
+        <v>0.02229187896957149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0462057787667267</v>
+        <v>0.04565977736505454</v>
       </c>
     </row>
     <row r="12">
@@ -3138,19 +3138,19 @@
         <v>1116153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1107048</v>
+        <v>1107049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1122527</v>
+        <v>1122635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9861375216563897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.978092920500278</v>
+        <v>0.9780939764026153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9917690018014437</v>
+        <v>0.9918644706397534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1111</v>
@@ -3159,19 +3159,19 @@
         <v>784529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>770130</v>
+        <v>768467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>797315</v>
+        <v>796366</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.911359988894794</v>
+        <v>0.9113599888947941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.894633674685827</v>
+        <v>0.8927013777931656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9262136096159015</v>
+        <v>0.9251112250682454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2211</v>
@@ -3180,19 +3180,19 @@
         <v>1900682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1882519</v>
+        <v>1883469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1914351</v>
+        <v>1915379</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9538337450633906</v>
+        <v>0.9538337450633908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9447191806157427</v>
+        <v>0.9451958516101231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9606938025729483</v>
+        <v>0.961209233651789</v>
       </c>
     </row>
     <row r="14">
@@ -3209,19 +3209,19 @@
         <v>15690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9316</v>
+        <v>9208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24795</v>
+        <v>24794</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01386247834361036</v>
+        <v>0.01386247834361035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008230998198556286</v>
+        <v>0.008135529360246732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.021907079499722</v>
+        <v>0.02190602359738475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -3230,19 +3230,19 @@
         <v>76304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63518</v>
+        <v>64467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90703</v>
+        <v>92366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08864001110520596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07378639038409857</v>
+        <v>0.07488877493175457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.105366325314173</v>
+        <v>0.1072986222068344</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -3251,19 +3251,19 @@
         <v>91994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78325</v>
+        <v>77297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110157</v>
+        <v>109207</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04616625493660934</v>
+        <v>0.04616625493660935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03930619742705146</v>
+        <v>0.03879076634821102</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0552808193842572</v>
+        <v>0.05480414838987687</v>
       </c>
     </row>
     <row r="15">
@@ -3355,19 +3355,19 @@
         <v>553489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>544153</v>
+        <v>543594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>559237</v>
+        <v>559542</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9762122857680676</v>
+        <v>0.9762122857680675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9597466487455998</v>
+        <v>0.9587602906215071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9863510701549536</v>
+        <v>0.9868876580798933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1153</v>
@@ -3376,19 +3376,19 @@
         <v>746827</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>731311</v>
+        <v>731285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>760317</v>
+        <v>759757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9004212633277329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8817132487630115</v>
+        <v>0.88168262707455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9166847628531554</v>
+        <v>0.9160095646355421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1685</v>
@@ -3397,19 +3397,19 @@
         <v>1300316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1282444</v>
+        <v>1282704</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1314527</v>
+        <v>1315760</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.931194551204759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.918395903400402</v>
+        <v>0.9185818598272364</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9413712131246165</v>
+        <v>0.9422540617621156</v>
       </c>
     </row>
     <row r="17">
@@ -3426,19 +3426,19 @@
         <v>13487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7739</v>
+        <v>7434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22823</v>
+        <v>23382</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02378771423193245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01364892984504642</v>
+        <v>0.01311234192010692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04025335125440014</v>
+        <v>0.04123970937849292</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -3447,19 +3447,19 @@
         <v>82593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69103</v>
+        <v>69663</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98109</v>
+        <v>98135</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09957873667226716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08331523714684461</v>
+        <v>0.08399043536445776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1182867512369884</v>
+        <v>0.11831737292545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -3468,19 +3468,19 @@
         <v>96080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81869</v>
+        <v>80636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113952</v>
+        <v>113692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06880544879524098</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05862878687538364</v>
+        <v>0.05774593823788449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0816040965995978</v>
+        <v>0.08141814017276403</v>
       </c>
     </row>
     <row r="18">
@@ -3572,16 +3572,16 @@
         <v>233838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>221622</v>
+        <v>220009</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9857082528640334</v>
+        <v>0.9857082528640333</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9342163577843703</v>
+        <v>0.9274177682773893</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -3593,19 +3593,19 @@
         <v>781078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>764978</v>
+        <v>765744</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>792779</v>
+        <v>792412</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.926686966468692</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9075850110930415</v>
+        <v>0.9084936401283989</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9405691846688814</v>
+        <v>0.9401331921755106</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1174</v>
@@ -3614,19 +3614,19 @@
         <v>1014916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>995729</v>
+        <v>998853</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1028011</v>
+        <v>1028845</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9396501059861085</v>
+        <v>0.9396501059861091</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9218860620849438</v>
+        <v>0.9247781626754322</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9517739579850274</v>
+        <v>0.9525460149527524</v>
       </c>
     </row>
     <row r="20">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15606</v>
+        <v>17219</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01429174713596657</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06578364221562899</v>
+        <v>0.07258223172261069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -3664,19 +3664,19 @@
         <v>61794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50093</v>
+        <v>50460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77894</v>
+        <v>77128</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07331303353130794</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05943081533111862</v>
+        <v>0.05986680782448932</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09241498890695833</v>
+        <v>0.09150635987160118</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -3685,19 +3685,19 @@
         <v>65184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52089</v>
+        <v>51255</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84371</v>
+        <v>81247</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06034989401389115</v>
+        <v>0.06034989401389119</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04822604201497246</v>
+        <v>0.04745398504724724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07811393791505625</v>
+        <v>0.0752218373245679</v>
       </c>
     </row>
     <row r="21">
@@ -3789,19 +3789,19 @@
         <v>3381684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3364360</v>
+        <v>3364639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3395026</v>
+        <v>3395503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9831841608568409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9781475638005747</v>
+        <v>0.9782287213612058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9870632770421401</v>
+        <v>0.9872020420261028</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4743</v>
@@ -3810,19 +3810,19 @@
         <v>3310495</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3279185</v>
+        <v>3280174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3337352</v>
+        <v>3338603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9119790840876616</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9033536305556871</v>
+        <v>0.903626139428346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9193776107200232</v>
+        <v>0.9197222512529994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7979</v>
@@ -3831,19 +3831,19 @@
         <v>6692179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6660668</v>
+        <v>6661511</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6724015</v>
+        <v>6726054</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9466223073092691</v>
+        <v>0.9466223073092689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9421650805115774</v>
+        <v>0.9422842610556517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9511256588750719</v>
+        <v>0.9514140140169677</v>
       </c>
     </row>
     <row r="23">
@@ -3860,19 +3860,19 @@
         <v>57838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44496</v>
+        <v>44019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75162</v>
+        <v>74883</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0168158391431591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01293672295785974</v>
+        <v>0.01279795797389719</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02185243619942519</v>
+        <v>0.02177127863879409</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>493</v>
@@ -3881,19 +3881,19 @@
         <v>319517</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>292660</v>
+        <v>291409</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350827</v>
+        <v>349838</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08802091591233834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08062238927997675</v>
+        <v>0.08027774874700026</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09664636944431283</v>
+        <v>0.09637386057165399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>554</v>
@@ -3902,19 +3902,19 @@
         <v>377355</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>345519</v>
+        <v>343480</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>408866</v>
+        <v>408023</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.053377692690731</v>
+        <v>0.05337769269073101</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04887434112492793</v>
+        <v>0.04858598598303251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05783491948842257</v>
+        <v>0.05771573894434839</v>
       </c>
     </row>
     <row r="24">
